--- a/counter_detail_log.xlsx
+++ b/counter_detail_log.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -774,6 +774,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10:02:46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25-4634</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TRANSIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
